--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H2">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I2">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J2">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1604463333333333</v>
+        <v>0.383214</v>
       </c>
       <c r="N2">
-        <v>0.481339</v>
+        <v>1.149642</v>
       </c>
       <c r="O2">
-        <v>0.4091752212750475</v>
+        <v>0.891270657753252</v>
       </c>
       <c r="P2">
-        <v>0.4091752212750475</v>
+        <v>0.891270657753252</v>
       </c>
       <c r="Q2">
-        <v>2.402269248341333</v>
+        <v>3.707091715197</v>
       </c>
       <c r="R2">
-        <v>14.413615490048</v>
+        <v>22.242550291182</v>
       </c>
       <c r="S2">
-        <v>0.04229467181590313</v>
+        <v>0.1033670446889721</v>
       </c>
       <c r="T2">
-        <v>0.03409366839264202</v>
+        <v>0.08067120371870666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H3">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I3">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J3">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.231675</v>
+        <v>0.04674966666666667</v>
       </c>
       <c r="N3">
-        <v>0.695025</v>
+        <v>0.140249</v>
       </c>
       <c r="O3">
-        <v>0.5908247787249524</v>
+        <v>0.108729342246748</v>
       </c>
       <c r="P3">
-        <v>0.5908247787249525</v>
+        <v>0.108729342246748</v>
       </c>
       <c r="Q3">
-        <v>3.468734476799999</v>
+        <v>0.4522415725631667</v>
       </c>
       <c r="R3">
-        <v>20.8124068608</v>
+        <v>2.713449435379</v>
       </c>
       <c r="S3">
-        <v>0.06107100043596731</v>
+        <v>0.01261012093380691</v>
       </c>
       <c r="T3">
-        <v>0.04922923734539695</v>
+        <v>0.009841372923349087</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H4">
         <v>121.239368</v>
       </c>
       <c r="I4">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J4">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1604463333333333</v>
+        <v>0.383214</v>
       </c>
       <c r="N4">
-        <v>0.481339</v>
+        <v>1.149642</v>
       </c>
       <c r="O4">
-        <v>0.4091752212750475</v>
+        <v>0.891270657753252</v>
       </c>
       <c r="P4">
-        <v>0.4091752212750475</v>
+        <v>0.891270657753252</v>
       </c>
       <c r="Q4">
-        <v>6.484137350416889</v>
+        <v>15.486874389584</v>
       </c>
       <c r="R4">
-        <v>58.357236153752</v>
+        <v>139.381869506256</v>
       </c>
       <c r="S4">
-        <v>0.1141605843868152</v>
+        <v>0.4318297361131125</v>
       </c>
       <c r="T4">
-        <v>0.1380370011334675</v>
+        <v>0.5055222104675227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H5">
         <v>121.239368</v>
       </c>
       <c r="I5">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J5">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.231675</v>
+        <v>0.04674966666666667</v>
       </c>
       <c r="N5">
-        <v>0.695025</v>
+        <v>0.140249</v>
       </c>
       <c r="O5">
-        <v>0.5908247787249524</v>
+        <v>0.108729342246748</v>
       </c>
       <c r="P5">
-        <v>0.5908247787249525</v>
+        <v>0.108729342246748</v>
       </c>
       <c r="Q5">
-        <v>9.3627101938</v>
+        <v>1.889300013625778</v>
       </c>
       <c r="R5">
-        <v>84.2643917442</v>
+        <v>17.003700122632</v>
       </c>
       <c r="S5">
-        <v>0.1648411206310859</v>
+        <v>0.05268047675722348</v>
       </c>
       <c r="T5">
-        <v>0.1993172519010267</v>
+        <v>0.06167048915737211</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H6">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I6">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J6">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1604463333333333</v>
+        <v>0.383214</v>
       </c>
       <c r="N6">
-        <v>0.481339</v>
+        <v>1.149642</v>
       </c>
       <c r="O6">
-        <v>0.4091752212750475</v>
+        <v>0.891270657753252</v>
       </c>
       <c r="P6">
-        <v>0.4091752212750475</v>
+        <v>0.891270657753252</v>
       </c>
       <c r="Q6">
-        <v>0.8033615832281111</v>
+        <v>0.7386956969859999</v>
       </c>
       <c r="R6">
-        <v>7.230254249053</v>
+        <v>6.648261272874</v>
       </c>
       <c r="S6">
-        <v>0.01414409085725826</v>
+        <v>0.02059749177741763</v>
       </c>
       <c r="T6">
-        <v>0.01710229407270549</v>
+        <v>0.02411248856350031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H7">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I7">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J7">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.231675</v>
+        <v>0.04674966666666667</v>
       </c>
       <c r="N7">
-        <v>0.695025</v>
+        <v>0.140249</v>
       </c>
       <c r="O7">
-        <v>0.5908247787249524</v>
+        <v>0.108729342246748</v>
       </c>
       <c r="P7">
-        <v>0.5908247787249525</v>
+        <v>0.108729342246748</v>
       </c>
       <c r="Q7">
-        <v>1.160006532575</v>
+        <v>0.09011616903922222</v>
       </c>
       <c r="R7">
-        <v>10.440058793175</v>
+        <v>0.811045521353</v>
       </c>
       <c r="S7">
-        <v>0.02042322925851825</v>
+        <v>0.002512762776839264</v>
       </c>
       <c r="T7">
-        <v>0.02469469944858433</v>
+        <v>0.002941569991825591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H8">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I8">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J8">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1604463333333333</v>
+        <v>0.383214</v>
       </c>
       <c r="N8">
-        <v>0.481339</v>
+        <v>1.149642</v>
       </c>
       <c r="O8">
-        <v>0.4091752212750475</v>
+        <v>0.891270657753252</v>
       </c>
       <c r="P8">
-        <v>0.4091752212750475</v>
+        <v>0.891270657753252</v>
       </c>
       <c r="Q8">
-        <v>9.657534433396499</v>
+        <v>10.271550600909</v>
       </c>
       <c r="R8">
-        <v>57.945206600379</v>
+        <v>61.62930360545401</v>
       </c>
       <c r="S8">
-        <v>0.1700318353961843</v>
+        <v>0.2864077588468232</v>
       </c>
       <c r="T8">
-        <v>0.1370623949376545</v>
+        <v>0.2235224846571944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H9">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I9">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J9">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.231675</v>
+        <v>0.04674966666666667</v>
       </c>
       <c r="N9">
-        <v>0.695025</v>
+        <v>0.140249</v>
       </c>
       <c r="O9">
-        <v>0.5908247787249524</v>
+        <v>0.108729342246748</v>
       </c>
       <c r="P9">
-        <v>0.5908247787249525</v>
+        <v>0.108729342246748</v>
       </c>
       <c r="Q9">
-        <v>13.9449075798375</v>
+        <v>1.2530637365605</v>
       </c>
       <c r="R9">
-        <v>83.669445479025</v>
+        <v>7.518382419363001</v>
       </c>
       <c r="S9">
-        <v>0.2455158971041885</v>
+        <v>0.03493992196745431</v>
       </c>
       <c r="T9">
-        <v>0.1979099782929356</v>
+        <v>0.02726831913820725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H10">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I10">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J10">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1604463333333333</v>
+        <v>0.383214</v>
       </c>
       <c r="N10">
-        <v>0.481339</v>
+        <v>1.149642</v>
       </c>
       <c r="O10">
-        <v>0.4091752212750475</v>
+        <v>0.891270657753252</v>
       </c>
       <c r="P10">
-        <v>0.4091752212750475</v>
+        <v>0.891270657753252</v>
       </c>
       <c r="Q10">
-        <v>1.884126640544445</v>
+        <v>1.093925494636</v>
       </c>
       <c r="R10">
-        <v>16.9571397649</v>
+        <v>9.845329451724</v>
       </c>
       <c r="S10">
-        <v>0.03317218416563796</v>
+        <v>0.03050257565166183</v>
       </c>
       <c r="T10">
-        <v>0.04011006818042009</v>
+        <v>0.03570789174264256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H11">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I11">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J11">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.231675</v>
+        <v>0.04674966666666667</v>
       </c>
       <c r="N11">
-        <v>0.695025</v>
+        <v>0.140249</v>
       </c>
       <c r="O11">
-        <v>0.5908247787249524</v>
+        <v>0.108729342246748</v>
       </c>
       <c r="P11">
-        <v>0.5908247787249525</v>
+        <v>0.108729342246748</v>
       </c>
       <c r="Q11">
-        <v>2.7205672475</v>
+        <v>0.1334519412975556</v>
       </c>
       <c r="R11">
-        <v>24.4851052275</v>
+        <v>1.201067471678</v>
       </c>
       <c r="S11">
-        <v>0.0478986687131575</v>
+        <v>0.003721119907388491</v>
       </c>
       <c r="T11">
-        <v>0.05791656220895559</v>
+        <v>0.004356135309090896</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H12">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I12">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J12">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1604463333333333</v>
+        <v>0.383214</v>
       </c>
       <c r="N12">
-        <v>0.481339</v>
+        <v>1.149642</v>
       </c>
       <c r="O12">
-        <v>0.4091752212750475</v>
+        <v>0.891270657753252</v>
       </c>
       <c r="P12">
-        <v>0.4091752212750475</v>
+        <v>0.891270657753252</v>
       </c>
       <c r="Q12">
-        <v>2.009064381919333</v>
+        <v>0.6658413505899999</v>
       </c>
       <c r="R12">
-        <v>18.081579437274</v>
+        <v>5.99257215531</v>
       </c>
       <c r="S12">
-        <v>0.03537185465324863</v>
+        <v>0.01856605067526487</v>
       </c>
       <c r="T12">
-        <v>0.04276979455815785</v>
+        <v>0.02173437860368539</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H13">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I13">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J13">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.231675</v>
+        <v>0.04674966666666667</v>
       </c>
       <c r="N13">
-        <v>0.695025</v>
+        <v>0.140249</v>
       </c>
       <c r="O13">
-        <v>0.5908247787249524</v>
+        <v>0.108729342246748</v>
       </c>
       <c r="P13">
-        <v>0.5908247787249525</v>
+        <v>0.108729342246748</v>
       </c>
       <c r="Q13">
-        <v>2.90096994435</v>
+        <v>0.08122840291055555</v>
       </c>
       <c r="R13">
-        <v>26.10872949915001</v>
+        <v>0.7310556261950001</v>
       </c>
       <c r="S13">
-        <v>0.05107486258203497</v>
+        <v>0.002264939904035537</v>
       </c>
       <c r="T13">
-        <v>0.06175704952805333</v>
+        <v>0.002651455726903046</v>
       </c>
     </row>
   </sheetData>
